--- a/Output_Excel/BookshelvesData.xlsx
+++ b/Output_Excel/BookshelvesData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Product Name</t>
   </si>
@@ -20,19 +20,22 @@
     <t>Product Price</t>
   </si>
   <si>
-    <t>Trendlong Round Floating Book Shelf</t>
+    <t>Yae Kids Wall Mounted Book Shelve In Light Green Colour</t>
   </si>
   <si>
-    <t>₹999</t>
+    <t>₹5,349</t>
   </si>
   <si>
-    <t>Captiver Wall Mount Book Shelf In Dark Acazia Finish</t>
+    <t>Jungle Kids Bookshelf in Chestnut Finish</t>
   </si>
   <si>
-    <t>₹1,389</t>
+    <t>₹9,999</t>
   </si>
   <si>
-    <t>Victor Book Shelf In Wenge Colour</t>
+    <t>Clary Storage Cabinet in Dark Acazia Colour</t>
+  </si>
+  <si>
+    <t>₹10,326</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Excel/BookshelvesData.xlsx
+++ b/Output_Excel/BookshelvesData.xlsx
@@ -12,30 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Product Name</t>
   </si>
   <si>
     <t>Product Price</t>
-  </si>
-  <si>
-    <t>Yae Kids Wall Mounted Book Shelve In Light Green Colour</t>
-  </si>
-  <si>
-    <t>₹5,349</t>
-  </si>
-  <si>
-    <t>Jungle Kids Bookshelf in Chestnut Finish</t>
-  </si>
-  <si>
-    <t>₹9,999</t>
-  </si>
-  <si>
-    <t>Clary Storage Cabinet in Dark Acazia Colour</t>
-  </si>
-  <si>
-    <t>₹10,326</t>
   </si>
 </sst>
 </file>
@@ -80,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,30 +76,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output_Excel/BookshelvesData.xlsx
+++ b/Output_Excel/BookshelvesData.xlsx
@@ -12,12 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Product Name</t>
   </si>
   <si>
     <t>Product Price</t>
+  </si>
+  <si>
+    <t>Trendlong Round Floating Book Shelf</t>
+  </si>
+  <si>
+    <t>₹999</t>
+  </si>
+  <si>
+    <t>Captiver Wall Mount Book Shelf In Dark Acazia Finish</t>
+  </si>
+  <si>
+    <t>₹1,389</t>
+  </si>
+  <si>
+    <t>Victor Book Shelf In Wenge Colour</t>
   </si>
 </sst>
 </file>
@@ -62,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -76,6 +91,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
